--- a/PREGAME/1.ELICITACION/1.3 Historias de Usuario/Grupo5_Plantilla_Matriz_Marco_Trabajo_HU_V3.0.xlsx
+++ b/PREGAME/1.ELICITACION/1.3 Historias de Usuario/Grupo5_Plantilla_Matriz_Marco_Trabajo_HU_V3.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anthony Quishpe\Documents\GitHub\4617_G5_MDWS\PREGAME\1.ELICITACION\1.3 Historias de Usuario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A15BD249-886F-4D10-A983-195400E38E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0226D89-2DBB-4C3B-BA21-DA8EE8437029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,9 +21,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="69">
   <si>
     <t>Matriz de Marco de Trabajo de HU</t>
   </si>
@@ -224,6 +222,30 @@
   <si>
     <t>PRUEBA</t>
   </si>
+  <si>
+    <t>El aplicativo permite registrar el registro de empleados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para que las personas tengan un horario </t>
+  </si>
+  <si>
+    <t>Usuario existente</t>
+  </si>
+  <si>
+    <t>Ingresar hora de entrada y salida en cada empleado</t>
+  </si>
+  <si>
+    <t>Freddy</t>
+  </si>
+  <si>
+    <t>Verificar que los registros de hora laborales se registre correctamente</t>
+  </si>
+  <si>
+    <t>Registro de empleados</t>
+  </si>
+  <si>
+    <t>Registradar entrada y salida</t>
+  </si>
 </sst>
 </file>
 
@@ -267,11 +289,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -324,6 +341,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -694,35 +717,29 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -731,7 +748,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -747,7 +764,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -755,69 +772,75 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1175,8 +1198,8 @@
   </sheetPr>
   <dimension ref="B1:O1001"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F4" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1204,22 +1227,22 @@
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="2:15" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H4" s="4"/>
@@ -1276,41 +1299,41 @@
       <c r="B6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="43" t="s">
+      <c r="F6" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="41" t="s">
+      <c r="G6" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="41" t="s">
+      <c r="H6" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="41">
+      <c r="I6" s="37">
         <v>2</v>
       </c>
-      <c r="J6" s="42">
+      <c r="J6" s="38">
         <v>44714</v>
       </c>
-      <c r="K6" s="41" t="s">
+      <c r="K6" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" s="44" t="s">
+      <c r="L6" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="N6" s="30"/>
-      <c r="O6" s="31" t="s">
+      <c r="N6" s="28"/>
+      <c r="O6" s="29" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1318,61 +1341,85 @@
       <c r="B7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="41" t="s">
+      <c r="F7" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="41" t="s">
+      <c r="G7" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="41" t="s">
+      <c r="H7" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="41">
+      <c r="I7" s="37">
         <v>2</v>
       </c>
-      <c r="J7" s="42">
+      <c r="J7" s="38">
         <v>44714</v>
       </c>
-      <c r="K7" s="41" t="s">
+      <c r="K7" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="31" t="s">
+      <c r="L7" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="41" t="s">
+      <c r="M7" s="37" t="s">
         <v>32</v>
       </c>
       <c r="N7" s="9"/>
-      <c r="O7" s="41" t="s">
+      <c r="O7" s="37" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
+    <row r="8" spans="2:15" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
+      <c r="C8" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="70" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="69" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="70" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="70">
+        <v>2</v>
+      </c>
+      <c r="J8" s="71">
+        <v>44751</v>
+      </c>
+      <c r="K8" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="9" spans="2:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
@@ -1384,7 +1431,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
-      <c r="I9" s="14"/>
+      <c r="I9" s="12"/>
       <c r="J9" s="11"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
@@ -1600,7 +1647,7 @@
     <row r="21" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="15"/>
+      <c r="K21" s="13"/>
       <c r="L21" s="3"/>
     </row>
     <row r="22" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1624,13 +1671,13 @@
     <row r="25" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="16"/>
+      <c r="K25" s="14"/>
       <c r="L25" s="3"/>
     </row>
     <row r="26" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="16"/>
+      <c r="K26" s="14"/>
       <c r="L26" s="3"/>
     </row>
     <row r="27" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7492,13 +7539,13 @@
     <row r="1000" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I1000" s="3"/>
       <c r="J1000" s="3"/>
-      <c r="K1000" s="15"/>
+      <c r="K1000" s="13"/>
       <c r="L1000" s="3"/>
     </row>
     <row r="1001" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I1001" s="3"/>
       <c r="J1001" s="3"/>
-      <c r="K1001" s="15"/>
+      <c r="K1001" s="13"/>
       <c r="L1001" s="3"/>
     </row>
   </sheetData>
@@ -7515,7 +7562,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.55118110236220474" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="landscape"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7542,415 +7589,415 @@
     <row r="2" spans="2:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="2:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="2:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="65"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="58"/>
     </row>
     <row r="7" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
     </row>
     <row r="8" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="32"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="36"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="34"/>
     </row>
     <row r="9" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="37"/>
-      <c r="C9" s="19" t="s">
+      <c r="B9" s="35"/>
+      <c r="C9" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="64" t="s">
+      <c r="D9" s="18"/>
+      <c r="E9" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="65"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="64" t="s">
+      <c r="F9" s="58"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="65"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="38"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="36"/>
     </row>
     <row r="10" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="37"/>
-      <c r="C10" s="22" t="s">
+      <c r="B10" s="35"/>
+      <c r="C10" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="66" t="str">
+      <c r="D10" s="21"/>
+      <c r="E10" s="60" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O20,5,0)</f>
         <v>Usuario nuevo</v>
       </c>
-      <c r="F10" s="65"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="66" t="str">
+      <c r="F10" s="58"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="60" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O20,11,0)</f>
-        <v>En proceso</v>
-      </c>
-      <c r="I10" s="65"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="38"/>
+        <v>Terminado</v>
+      </c>
+      <c r="I10" s="58"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="36"/>
     </row>
     <row r="11" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="37"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="38"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="36"/>
     </row>
     <row r="12" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="37"/>
-      <c r="C12" s="19" t="s">
+      <c r="B12" s="35"/>
+      <c r="C12" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="64" t="s">
+      <c r="D12" s="21"/>
+      <c r="E12" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="65"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="64" t="s">
+      <c r="F12" s="58"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="I12" s="65"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="38"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="36"/>
     </row>
     <row r="13" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="37"/>
-      <c r="C13" s="22">
+      <c r="B13" s="35"/>
+      <c r="C13" s="20">
         <f>VLOOKUP('Historia de Usuario'!C10,'Formato descripción HU'!B6:O20,8,0)</f>
         <v>2</v>
       </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="66" t="str">
+      <c r="D13" s="21"/>
+      <c r="E13" s="60" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O20,10,0)</f>
         <v>Alta</v>
       </c>
-      <c r="F13" s="65"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="66" t="str">
+      <c r="F13" s="58"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="60" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O20,7,0)</f>
         <v>Juliana</v>
       </c>
-      <c r="I13" s="65"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="38"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="36"/>
     </row>
     <row r="14" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="37"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="38"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="36"/>
     </row>
     <row r="15" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="37"/>
-      <c r="C15" s="47" t="s">
+      <c r="B15" s="35"/>
+      <c r="C15" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="71" t="str">
+      <c r="D15" s="61" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O20,3,0)</f>
         <v>Registrar los datos de los usuarios</v>
       </c>
-      <c r="E15" s="52"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="47" t="s">
+      <c r="E15" s="47"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="H15" s="71" t="str">
+      <c r="H15" s="61" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O20,4,0)</f>
         <v xml:space="preserve">Para que las personas puedan iniciar seción de manera correcta con credenciales. </v>
       </c>
-      <c r="I15" s="51"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="47" t="s">
+      <c r="I15" s="54"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="M15" s="50" t="str">
+      <c r="M15" s="53" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O20,6,0)</f>
         <v>Ingresar los datos como el nombre, cédula, dirección, entre otros datos.</v>
       </c>
-      <c r="N15" s="51"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="38"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="36"/>
     </row>
     <row r="16" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="37"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="38"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="36"/>
     </row>
     <row r="17" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="37"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="38"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="36"/>
     </row>
     <row r="18" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="38"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="36"/>
     </row>
     <row r="19" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="37"/>
-      <c r="C19" s="67" t="s">
+      <c r="B19" s="35"/>
+      <c r="C19" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="52"/>
-      <c r="E19" s="58" t="str">
+      <c r="D19" s="47"/>
+      <c r="E19" s="62" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O20,14,0)</f>
         <v>Registro de datos personales</v>
       </c>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="60"/>
-      <c r="P19" s="38"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="63"/>
+      <c r="O19" s="64"/>
+      <c r="P19" s="36"/>
     </row>
     <row r="20" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="37"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="62"/>
-      <c r="N20" s="62"/>
-      <c r="O20" s="63"/>
-      <c r="P20" s="38"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="66"/>
+      <c r="M20" s="66"/>
+      <c r="N20" s="66"/>
+      <c r="O20" s="67"/>
+      <c r="P20" s="36"/>
     </row>
     <row r="21" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="37"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="38"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="36"/>
     </row>
     <row r="22" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="37"/>
-      <c r="C22" s="68" t="s">
+      <c r="B22" s="35"/>
+      <c r="C22" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="52"/>
-      <c r="E22" s="50" t="str">
+      <c r="D22" s="47"/>
+      <c r="E22" s="53" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O20,12,0)</f>
         <v>Verificando los datos personales del usuario.</v>
       </c>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="68" t="s">
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="K22" s="52"/>
-      <c r="L22" s="50">
+      <c r="K22" s="47"/>
+      <c r="L22" s="53">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O20,13,0)</f>
         <v>0</v>
       </c>
-      <c r="M22" s="51"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="52"/>
-      <c r="P22" s="38"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="47"/>
+      <c r="P22" s="36"/>
     </row>
     <row r="23" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="37"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="46"/>
-      <c r="O23" s="54"/>
-      <c r="P23" s="38"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="36"/>
     </row>
     <row r="24" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="37"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="56"/>
-      <c r="O24" s="57"/>
-      <c r="P24" s="38"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="55"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="36"/>
     </row>
     <row r="25" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="27"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="29"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="27"/>
     </row>
     <row r="26" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8949,6 +8996,11 @@
     <row r="1020" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="M15:O17"/>
+    <mergeCell ref="E19:O20"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="C19:D20"/>
     <mergeCell ref="C22:D24"/>
@@ -8965,11 +9017,6 @@
     <mergeCell ref="D15:E17"/>
     <mergeCell ref="G15:G17"/>
     <mergeCell ref="H15:J17"/>
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="M15:O17"/>
-    <mergeCell ref="E19:O20"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:I11">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
